--- a/Etiquetas.xlsx
+++ b/Etiquetas.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIETH LOPEZ\Documents\Diplomado_IA_AP\Clasificador_sarcasmo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EB4002-7F10-4A9C-AFC1-B2B46C6E1C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340B0EC3-36BC-43E0-A1D7-7282C7BA0C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F465D103-FEC2-4BB9-9909-6AF23551EAA1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Etiquetas" sheetId="1" r:id="rId1"/>
+    <sheet name="Cuantos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -806,74 +807,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9248C9E9-FCCA-4238-BD15-60AB07B22EBD}">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:B125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2">
-        <f>COUNTIF(B:B,D2)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2">
-        <f>COUNTIF(B:B,D3)</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="2">
-        <f>SUM(E2:E3)</f>
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -881,7 +855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -889,7 +863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -897,7 +871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -905,7 +879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -913,7 +887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -921,7 +895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -929,7 +903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -937,7 +911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -945,7 +919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -953,7 +927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -961,7 +935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1846,4 +1820,54 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5930D9A6-E31E-4E9D-9A05-F83FA78260EE}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <f>COUNTIF(Etiquetas!B:B,A2)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <f>COUNTIF(Etiquetas!B:B,A3)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="2">
+        <f>SUM(B2:B3)</f>
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>